--- a/data/s_vals/2023/voth_austin.xlsx
+++ b/data/s_vals/2023/voth_austin.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C2" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5.78562275156707</v>
+        <v>6.048734245549538</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.641759230980763</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C3" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9945002603303881</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.305734408293376</v>
+        <v>8.418600821238126</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.592038685284193</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C4" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>3.478391873985803</v>
+        <v>3.034748368925986</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.592038685284193</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C5" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>3.7359022058705</v>
+        <v>3.594575437922795</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/voth_austin.xlsx
+++ b/data/s_vals/2023/voth_austin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>6.048734245549538</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>8.418600821238126</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>3.034748368925986</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -563,6 +577,9 @@
       </c>
       <c r="G5" t="n">
         <v>3.594575437922795</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/voth_austin.xlsx
+++ b/data/s_vals/2023/voth_austin.xlsx
@@ -523,7 +523,7 @@
         <v>8.418600821238126</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">

--- a/data/s_vals/2023/voth_austin.xlsx
+++ b/data/s_vals/2023/voth_austin.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C2" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>6.048734245549538</v>
+        <v>6.189590430959694</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -505,25 +505,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.182878228561681</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C3" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D3" t="n">
-        <v>3.082599426703578</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.418600821238126</v>
+        <v>8.974608811992548</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7287194209349384</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C4" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>3.034748368925986</v>
+        <v>2.960089034096801</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7287194209349384</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C5" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>3.594575437922795</v>
+        <v>3.56341032713086</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
